--- a/DataFlows/Administrativo/Registro_Trabajadores.xlsx
+++ b/DataFlows/Administrativo/Registro_Trabajadores.xlsx
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F13" ca="1" si="0">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>9822018434</v>
+        <v>8548786944</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>47</v>
@@ -1112,7 +1112,7 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>0</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1311575521</v>
+        <v>4794985757</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>47</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7359436343</v>
+        <v>7640012378</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>47</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1157957351</v>
+        <v>3133551461</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>47</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6779062484</v>
+        <v>1859463814</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>47</v>
@@ -1258,7 +1258,7 @@
       <c r="E7" s="3"/>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6166791640</v>
+        <v>2650689862</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>47</v>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3315404550</v>
+        <v>1947054005</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8789566018</v>
+        <v>2038780336</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>47</v>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5548587414</v>
+        <v>0520870242</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>47</v>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8368302640</v>
+        <v>7487387974</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>47</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0351906933</v>
+        <v>6454329084</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>47</v>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" ref="F14:F22" ca="1" si="1">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>8424521510</v>
+        <v>5804035047</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>47</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6099711728</v>
+        <v>6229737645</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>47</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6571301647</v>
+        <v>4926415573</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>47</v>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0755283846</v>
+        <v>5671877464</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>47</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6785398534</v>
+        <v>9679102343</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>47</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6834305954</v>
+        <v>6029740581</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>47</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3226432157</v>
+        <v>7766785797</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>47</v>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6607746925</v>
+        <v>1842294291</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>47</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>0931177057</v>
+        <v>1506063543</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>47</v>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ref="F25:F27" ca="1" si="2">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>9582996185</v>
+        <v>9556448831</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>91</v>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>0315429982</v>
+        <v>1152460953</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>92</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>1358962078</v>
+        <v>5085376388</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>90</v>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F28" t="str">
         <f ca="1">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>2244801073</v>
+        <v>6750078203</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>79</v>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="F31" t="str">
         <f ca="1">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>4478916555</v>
+        <v>6696492674</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>47</v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="F32" t="str">
         <f ca="1">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>7793700329</v>
+        <v>2585625039</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>47</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="F33" t="str">
         <f ca="1">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>4494370035</v>
+        <v>5707367307</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>47</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ref="F34:F49" ca="1" si="3">CONCATENATE(RANDBETWEEN(0,9), RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9),  RANDBETWEEN(0,9))</f>
-        <v>0182580045</v>
+        <v>6180280284</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>47</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5026803793</v>
+        <v>9964545768</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>47</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>3672946996</v>
+        <v>9470289960</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>114</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>4043470287</v>
+        <v>3995973760</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>119</v>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0414371535</v>
+        <v>1510887547</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>47</v>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>9373461515</v>
+        <v>8762860005</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>47</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>9973864979</v>
+        <v>9570104679</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>47</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>1264130244</v>
+        <v>9723829701</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>47</v>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2478702075</v>
+        <v>9207102641</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>47</v>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>8042269210</v>
+        <v>5847336047</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>47</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7298648816</v>
+        <v>6124072940</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>47</v>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>5164220253</v>
+        <v>5183849634</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>47</v>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>7989238101</v>
+        <v>5714922056</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>47</v>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2445566349</v>
+        <v>2869040786</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>47</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>0313143064</v>
+        <v>5497016738</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>47</v>
@@ -2640,9 +2640,9 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" t="s">
         <v>174</v>
       </c>
     </row>
